--- a/アンリアル仕様書.xlsx
+++ b/アンリアル仕様書.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="作るもの" sheetId="7" r:id="rId1"/>
+    <sheet name="大体の流れ" sheetId="1" r:id="rId2"/>
+    <sheet name="ステージ" sheetId="3" r:id="rId3"/>
+    <sheet name="プレイヤー" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,11 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>プレイヤー</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>左右移動</t>
     <rPh sb="0" eb="4">
@@ -37,14 +36,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ジャンプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スライディング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>攻撃</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
@@ -52,47 +43,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>障害物</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガイブツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>space</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鉄骨</t>
-    <rPh sb="0" eb="2">
-      <t>テッコツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>車</t>
     <rPh sb="0" eb="1">
       <t>クルマ</t>
@@ -107,10 +57,194 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>電柱</t>
+    <t>タイトル画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージセレクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライディング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          D→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペースキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">              →</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素材</t>
     <rPh sb="0" eb="2">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mixamo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倒れた電柱</t>
+    <rPh sb="0" eb="1">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
       <t>デンチュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄柱</t>
+    <rPh sb="0" eb="2">
+      <t>テッチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>街中</t>
+    <rPh sb="0" eb="2">
+      <t>マチナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工事現場</t>
+    <rPh sb="0" eb="4">
+      <t>コウジゲンバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>障害物、敵</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>操作方法</t>
+    </r>
+    <rPh sb="1" eb="5">
+      <t>ソウサホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクション成功でスピードアップ</t>
+    <rPh sb="5" eb="7">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③障害物</t>
+    <rPh sb="1" eb="4">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左右移動</t>
+    <rPh sb="0" eb="2">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライディング</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -118,7 +252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +265,32 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -157,9 +317,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -176,6 +345,107 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>297316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="297316"/>
+          <a:ext cx="3076574" cy="3516085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="右中かっこ 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="4791075"/>
+          <a:ext cx="209550" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,81 +711,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="17.08203125" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>5</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="17.75" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="43.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C17:C19"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/アンリアル仕様書.xlsx
+++ b/アンリアル仕様書.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\hukuoka_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="作るもの" sheetId="7" r:id="rId1"/>
     <sheet name="大体の流れ" sheetId="1" r:id="rId2"/>
     <sheet name="ステージ" sheetId="3" r:id="rId3"/>
     <sheet name="プレイヤー" sheetId="2" r:id="rId4"/>
+    <sheet name="1ステージ分" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -712,7 +713,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="0"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -758,6 +759,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -808,10 +812,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -872,10 +879,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -949,4 +959,17 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>